--- a/framework/inputs/transform_dta_columns_exe_report.xlsx
+++ b/framework/inputs/transform_dta_columns_exe_report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sisuadigital-my.sharepoint.com/personal/vicente_diaz_sisuadigital_com/Documents/Github/uipath_frameworks/standalone_framework/standalone_template_3.4/framework/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\UiPath\doi_soat_vietqr\framework\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{D55DD7EE-42D4-4D40-AC59-377E61B0875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B5ACA8-5136-44E7-8A86-DFDA21B796FD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="3" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>original_name</t>
   </si>
@@ -47,34 +46,22 @@
     <t>ADD</t>
   </si>
   <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>outcome_state_1</t>
-  </si>
-  <si>
-    <t>outcome_state_2</t>
-  </si>
-  <si>
-    <t>renamed_column_2</t>
-  </si>
-  <si>
-    <t>renamed_column_3</t>
-  </si>
-  <si>
-    <t>processing_date</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>observation</t>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Tài Khoản</t>
+  </si>
+  <si>
+    <t>downloaded</t>
+  </si>
+  <si>
+    <t>Tải file thành công</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -158,149 +145,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CD14CF42-B86A-4B0E-876D-F578B76122A8}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -470,13 +317,62 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="6"/>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -499,14 +395,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:E6" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:E6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="original_name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="index" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="action" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="new_column_name" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E89B70D3-AB69-4D2F-ABEE-1B891221DD6A}" name="default_value" dataDxfId="14"/>
+    <tableColumn id="1" name="original_name" dataDxfId="4"/>
+    <tableColumn id="2" name="index" dataDxfId="3"/>
+    <tableColumn id="3" name="action" dataDxfId="2"/>
+    <tableColumn id="4" name="new_column_name" dataDxfId="1"/>
+    <tableColumn id="5" name="default_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -781,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -817,7 +713,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -826,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -841,73 +737,45 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="RENAME">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="RENAME">
       <formula>NOT(ISERROR(SEARCH("RENAME",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="ADD">
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="ADD">
       <formula>NOT(ISERROR(SEARCH("ADD",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="DELETE">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="DELETE">
       <formula>NOT(ISERROR(SEARCH("DELETE",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -919,7 +787,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19C7C2BB-D55D-4BEA-AAC1-B428B0064CE4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>_rules!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -932,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E1B832-1349-4609-B317-09C5A46CCB7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1146,18 +1014,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1179,18 +1047,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58402AE1-B584-4CD5-928D-131AE9765140}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F605609C-15F1-46E2-B115-042E7604117D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58402AE1-B584-4CD5-928D-131AE9765140}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>